--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FACULTATE\ANU 3\vvss\laburi\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SILVIA\SEMVI\VVSS\EchipaUnu\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F4AC5-B176-4117-82EA-51D72059C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB6E1D2-EC16-4848-888F-D13600F52FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -146,19 +159,92 @@
   </si>
   <si>
     <t>KitchenControllerGUI.java line 16,18</t>
+  </si>
+  <si>
+    <t>Pirlea Silvia-Cristina</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>Organizararea programului este clara, exista pachete separate pentru fiecare strat al arhitecturii</t>
+  </si>
+  <si>
+    <t>Partitionarea si layering-ul este corect</t>
+  </si>
+  <si>
+    <t>Arhitectura permite realizarea tuturor cerintelor</t>
+  </si>
+  <si>
+    <t>PizzaService</t>
+  </si>
+  <si>
+    <t>La nivelul proiectului exista un singur service responabil de business layer si acesta incorporeaza toate subsistemele</t>
+  </si>
+  <si>
+    <t>Nu exista la nivelul aplicatiei o strategie de gestiune a erorilor, nu exista clase separate pentru un anumit tip de eroare. Sunt tratate doar erorile IO</t>
+  </si>
+  <si>
+    <t>MVC model este incorporat in proiect</t>
+  </si>
+  <si>
+    <t>Se acupa atat cu plata cat si cu afisarea meniului. Din numele clasei nu iti dai seama care este scopul serviciului, o denumire mai buna ar fi PizzaManagementOrdersService</t>
+  </si>
+  <si>
+    <t>Exista descriere la clase ?? Nu cred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatiile 1 to many nu sunt bine scrise intre PaymentRepository si Payment, intre MenuGUIController si OrdersGUI ar trebui sa fie 1:10, </t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>The key entity classes are consistent with business and model layers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,76 +423,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,19 +861,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -806,10 +893,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -820,10 +907,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -835,15 +922,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1030,8 +1117,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,19 +1137,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1075,17 +1162,21 @@
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1096,10 +1187,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1111,15 +1202,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1135,94 +1226,138 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
@@ -1315,7 +1450,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1336,19 +1471,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1361,7 +1496,7 @@
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1372,14 +1507,14 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1390,14 +1525,14 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="3">
@@ -1409,15 +1544,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1683,19 +1818,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1715,8 +1850,8 @@
       <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1727,8 +1862,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1740,8 +1875,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1971,11 +2106,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FACULTATE\ANU 3\vvss\laburi\CheckLists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SILVIA\SEMVI\VVSS\EchipaUnu\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4F4AC5-B176-4117-82EA-51D72059C9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF9848-03EA-4684-B2DA-2E4FF9A6E72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -146,19 +159,92 @@
   </si>
   <si>
     <t>KitchenControllerGUI.java line 16,18</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Organizararea programului este clara, exista pachete separate pentru fiecare strat al arhitecturii</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>Partitionarea si layering-ul este corect</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Arhitectura permite realizarea tuturor cerintelor</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>PizzaService</t>
+  </si>
+  <si>
+    <t>La nivelul proiectului exista un singur service responabil de business layer si acesta incorporeaza toate subsistemele</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Nu exista la nivelul aplicatiei o strategie de gestiune a erorilor, nu exista clase separate pentru un anumit tip de eroare. Sunt tratate doar erorile IO</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>MVC model este incorporat in proiect</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Se acupa atat cu plata cat si cu afisarea meniului. Din numele clasei nu iti dai seama care este scopul serviciului, o denumire mai buna ar fi PizzaManagementOrdersService</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>Exista descriere la clase ?? Nu cred</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relatiile 1 to many nu sunt bine scrise intre PaymentRepository si Payment, intre MenuGUIController si OrdersGUI ar trebui sa fie 1:10, </t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>The key entity classes are consistent with business and model layers</t>
+  </si>
+  <si>
+    <t>Silvia Pirlea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,76 +423,77 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -428,7 +515,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -774,19 +861,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -806,10 +893,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="25"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -820,10 +907,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="27"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -835,15 +922,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1030,8 +1117,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,19 +1137,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1075,17 +1162,21 @@
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="17">
+        <v>235</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1096,10 +1187,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="30"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1111,181 +1202,209 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
-        <f>B10+1</f>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
+      <c r="B15">
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
+      <c r="B17">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
+      <c r="B20">
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
+      <c r="B21">
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
+      <c r="B22">
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
+      <c r="B23">
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
+      <c r="B24">
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
+      <c r="B25">
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
+      <c r="B26">
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="11" t="s">
@@ -1315,7 +1434,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1336,19 +1455,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1361,7 +1480,7 @@
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="J3" s="17">
@@ -1372,14 +1491,14 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="21" t="s">
         <v>34</v>
       </c>
       <c r="J4" s="3">
@@ -1390,14 +1509,14 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="33"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="3">
@@ -1409,15 +1528,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1683,19 +1802,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1715,8 +1834,8 @@
       <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1727,8 +1846,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1740,8 +1859,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1971,11 +2090,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SILVIA\SEMVI\VVSS\EchipaUnu\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FACULTATE\ANU 3\vvss\github\EchipaUnu\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFF9848-03EA-4684-B2DA-2E4FF9A6E72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9E083-E5F6-45C2-9506-1E19F5DCF4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,25 +18,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -152,12 +139,6 @@
     <t>KitchenControllerGUI.java line 60</t>
   </si>
   <si>
-    <t>In cod nu se verifica daca o comanda este selectata inainte de a apasa pe butonul Ready asa cum ar fi logic,ceea ce duce la o eroaredeoareceselectedOrder ar putea fi null</t>
-  </si>
-  <si>
-    <t>Unii parametri nu sunt denumiti corespunzator ,de exemplu cand vezi variabila ready in cod nu sti daca e un buton pana nu faci actiuni specifice unui buton.</t>
-  </si>
-  <si>
     <t>KitchenControllerGUI.java line 16,18</t>
   </si>
   <si>
@@ -225,6 +206,75 @@
   </si>
   <si>
     <t>Silvia Pirlea</t>
+  </si>
+  <si>
+    <t>In cod nu se verifica daca o comanda este selectata inainte de a apasa pe butonul Ready asa cum ar fi logic,ceea ce duce la o eroare deoarece selectedOrder ar putea fi null.</t>
+  </si>
+  <si>
+    <t>Unii parametri nu sunt denumiti corespunzator ,de exemplu cand vezi variabila ready in cod nu sti daca e un buton pana nu faci actiuni specifice unui buton.Parametrii ar trebui sa aibe nume cat mai sugestive legat de ceea ce reprezinta.</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java line 65</t>
+  </si>
+  <si>
+    <t>Metodele are trebui sa nu fie goale</t>
+  </si>
+  <si>
+    <t>OrdersGUIController avea o metoda constructor in care nu se facea nimic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fost adaugat un comentariu inauntrul metodei </t>
+  </si>
+  <si>
+    <t>Membri statici ar trebui sa fie accesati static</t>
+  </si>
+  <si>
+    <t>In metoda setTotalAmount aveam this.totalAmount=totalAmount</t>
+  </si>
+  <si>
+    <t>this a fost inlocuit cu numele clasei</t>
+  </si>
+  <si>
+    <t>Sectiuni de cod nu ar trebui sa fie comentate</t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java line 61</t>
+  </si>
+  <si>
+    <t>Bucata de cod " // = FXCollections.observableArrayList();   " era comentata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codul comentat a fost sters </t>
+  </si>
+  <si>
+    <t>OrdersGUIController.java line 53,109</t>
+  </si>
+  <si>
+    <t>KitchenGUIController.java line 24</t>
+  </si>
+  <si>
+    <t>Nu ar trebui folositi constructori pentrua instantia String,BigInteger etc.</t>
+  </si>
+  <si>
+    <t>extractedTableNumberString era instantiat cu =new String();</t>
+  </si>
+  <si>
+    <t>new String() a fost inlocuit cu "" reprezentat un string gol</t>
+  </si>
+  <si>
+    <t>KitchenGUIController.java line 21</t>
+  </si>
+  <si>
+    <t>Fielduri-le "public static" ar trebui sa fie constante</t>
+  </si>
+  <si>
+    <t>order era doar public si static</t>
+  </si>
+  <si>
+    <t>order a fost facut si final</t>
   </si>
 </sst>
 </file>
@@ -454,6 +504,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -496,7 +547,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -861,19 +911,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -893,10 +943,10 @@
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -907,10 +957,10 @@
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -922,15 +972,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1117,7 +1167,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1137,19 +1187,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1162,8 +1212,8 @@
       <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="36" t="s">
-        <v>62</v>
+      <c r="I3" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="J3" s="17">
         <v>235</v>
@@ -1173,10 +1223,10 @@
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="28"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1187,10 +1237,10 @@
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1202,15 +1252,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1231,11 +1281,11 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1243,11 +1293,11 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1255,11 +1305,11 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1267,13 +1317,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
         <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1281,11 +1331,11 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1293,11 +1343,11 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1305,13 +1355,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
@@ -1319,11 +1369,11 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
@@ -1331,11 +1381,11 @@
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
@@ -1343,11 +1393,11 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -1435,7 +1485,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,19 +1505,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1491,10 +1541,10 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1509,10 +1559,10 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1528,15 +1578,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
@@ -1563,10 +1613,10 @@
         <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
@@ -1575,10 +1625,10 @@
         <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1780,8 +1830,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,19 +1852,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>29</v>
@@ -1834,8 +1884,10 @@
       <c r="C4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>20</v>
       </c>
@@ -1846,8 +1898,8 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>21</v>
       </c>
@@ -1859,8 +1911,8 @@
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1880,54 +1932,94 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
@@ -2090,11 +2182,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FACULTATE\ANU 3\vvss\github\EchipaUnu\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE9E083-E5F6-45C2-9506-1E19F5DCF4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43384954-C096-4F3E-A9AF-405F8832FDB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="650" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>order a fost facut si final</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>Main.java lines 51-57</t>
+  </si>
+  <si>
+    <t>Codul din interiorul else si else if este exact acelasi  si anume"event.consume()" .Nu are sens asa ca a fost lasat doar else.</t>
   </si>
 </sst>
 </file>
@@ -1484,8 +1493,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1631,14 +1640,20 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -1830,7 +1845,7 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FACULTATE\ANU 3\vvss\github\EchipaUnu\Docs\Lab01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D767B7F5-BB1A-41DE-8B14-372BFC1263F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
-    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId5"/>
-    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId6"/>
-    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId7"/>
-    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId8"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements Phase Defects" sheetId="2" r:id="rId2"/>
+    <sheet name="Architect. Design Phase Defects" sheetId="3" r:id="rId3"/>
+    <sheet name="Coding Phase Defects" sheetId="4" r:id="rId4"/>
+    <sheet name="Tool-basedCodeAnalysis" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="118">
   <si>
     <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -347,9 +356,6 @@
     <t>KitchenGUIController.java line 24</t>
   </si>
   <si>
-    <t>Nu ar trebui folositi constructori pentrua instantia String,BigInteger etc.</t>
-  </si>
-  <si>
     <t>extractedTableNumberString era instantiat cu =new String();</t>
   </si>
   <si>
@@ -369,16 +375,16 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Nu ar trebui folositi constructori pentru Aa instantia String,BigInteger etc.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -395,42 +401,32 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="15"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -441,7 +437,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -662,205 +658,145 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,32 +806,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff5e88b1"/>
-      <rgbColor rgb="ffeef3f4"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff000080"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffc00000"/>
-      <rgbColor rgb="ffe5dfec"/>
-      <rgbColor rgb="fffde9d9"/>
-      <rgbColor rgb="ffd2dae4"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF5E88B1"/>
+      <rgbColor rgb="FFEEF3F4"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFC00000"/>
+      <rgbColor rgb="FFE5DFEC"/>
+      <rgbColor rgb="FFFDE9D9"/>
+      <rgbColor rgb="FFD2DAE4"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -1021,7 +1010,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1030,7 +1019,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1039,7 +1028,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1113,7 +1102,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1121,7 +1110,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1140,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1170,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1196,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1300,7 +1289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,7 +1315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1352,7 +1341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1378,7 +1367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,9 +1380,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1408,7 +1403,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1416,7 +1411,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1435,7 +1430,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,7 +1456,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1487,7 +1482,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1513,7 +1508,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1539,7 +1534,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1565,7 +1560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1591,7 +1586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1617,7 +1612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1643,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1669,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1682,9 +1677,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1698,7 +1699,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1717,7 +1718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1747,7 +1748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +1774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1799,7 +1800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1877,7 +1878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1903,7 +1904,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1929,7 +1930,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1955,7 +1956,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1968,106 +1969,114 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="4" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="0.05" customHeight="1">
-      <c r="B3" t="s" s="1">
+    <row r="3" spans="2:4" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="7" spans="2:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" t="s" s="3">
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4"/>
-      <c r="C12" t="s" s="4">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" t="s" s="3">
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4"/>
-      <c r="C14" t="s" s="4">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="3">
+    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="4"/>
-      <c r="C16" t="s" s="4">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2076,508 +2085,510 @@
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" tooltip="" display="Requirements Phase Defects"/>
-    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" tooltip="" display="Architect. Design Phase Defects"/>
-    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" tooltip="" display="Coding Phase Defects"/>
-    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" tooltip="" display="Tool-basedCodeAnalysis"/>
+    <hyperlink ref="D10" location="'Requirements Phase Defects'!R1C1" display="Requirements Phase Defects" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" location="'Architect. Design Phase Defects'!R1C1" display="Architect. Design Phase Defects" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" location="'Coding Phase Defects'!R1C1" display="Coding Phase Defects" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D16" location="'Tool-basedCodeAnalysis'!R1C1" display="Tool-basedCodeAnalysis" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="19">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="20">
+      <c r="D4" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="E4" s="52"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="19">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="23">
+      <c r="D5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="E5" s="54"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="C6" t="s" s="26">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s" s="26">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="30">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="30">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="30">
+      <c r="D9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s" s="31">
+      <c r="E9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="26.55" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="18">
+      <c r="F9" s="17"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="11">
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s" s="16">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s" s="32">
+      <c r="E10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="26.55" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18">
-        <f>B10+1</f>
+      <c r="F10" s="17"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15">
+        <f t="shared" ref="B11:B25" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="11">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" t="s" s="32">
+      <c r="D11" s="12"/>
+      <c r="E11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="26.55" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="18">
-        <f>B11+1</f>
+      <c r="F11" s="17"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="11">
+      <c r="C12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s" s="16">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" t="s" s="32">
+      <c r="E12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="26.55" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18">
-        <f>B12+1</f>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="11">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s" s="16">
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s" s="32">
+      <c r="E13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="18">
-        <f>B13+1</f>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" t="s" s="11">
+      <c r="C14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" t="s" s="32">
+      <c r="D14" s="12"/>
+      <c r="E14" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="18">
-        <f>B14+1</f>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" t="s" s="33">
+      <c r="C15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s" s="34">
+      <c r="D15" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E15" t="s" s="34">
+      <c r="E15" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="26.55" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="18">
-        <f>B15+1</f>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" t="s" s="35">
+      <c r="C16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" t="s" s="37">
+      <c r="D16" s="28"/>
+      <c r="E16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="26.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18">
-        <f>B16+1</f>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" t="s" s="35">
+      <c r="C17" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s" s="38">
+      <c r="D17" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E17" t="s" s="37">
+      <c r="E17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="26.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18">
-        <f>B17+1</f>
+      <c r="F17" s="17"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" t="s" s="35">
+      <c r="C18" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s" s="38">
+      <c r="D18" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s" s="37">
+      <c r="E18" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="18">
-        <f>B18+1</f>
+      <c r="F18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="35">
+      <c r="C19" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s" s="38">
+      <c r="D19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s" s="37">
+      <c r="E19" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18">
-        <f>B19+1</f>
+      <c r="F19" s="17"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18">
-        <f>B20+1</f>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="18">
-        <f>B21+1</f>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="18">
-        <f>B22+1</f>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="18">
-        <f>B23+1</f>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="18">
-        <f>B24+1</f>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" t="s" s="40">
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42">
+      <c r="D27" s="33"/>
+      <c r="E27" s="34">
         <v>4</v>
       </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2589,7 +2600,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2597,478 +2608,478 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="43" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="43" customWidth="1"/>
-    <col min="3" max="4" width="16.3516" style="43" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="43" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="43" customWidth="1"/>
-    <col min="9" max="9" width="22" style="43" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="43" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="44">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="45">
+      <c r="D4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="E4" s="56"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="44">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s" s="47">
+      <c r="D5" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="E5" s="58"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="C6" t="s" s="26">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s" s="26">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" t="s" s="49">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="49">
+      <c r="C9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="49">
+      <c r="D9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s" s="49">
+      <c r="E9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="50">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="37">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="49">
+      <c r="C10" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" t="s" s="49">
+      <c r="D10" s="8"/>
+      <c r="E10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="50">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="37">
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="49">
+      <c r="C11" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" t="s" s="49">
+      <c r="D11" s="8"/>
+      <c r="E11" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="50">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="37">
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="49">
+      <c r="C12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" t="s" s="49">
+      <c r="D12" s="8"/>
+      <c r="E12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="50">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="37">
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="49">
+      <c r="C13" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="D13" t="s" s="49">
+      <c r="D13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E13" t="s" s="49">
+      <c r="E13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="50">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="37">
         <v>5</v>
       </c>
-      <c r="C14" t="s" s="49">
+      <c r="C14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" t="s" s="49">
+      <c r="D14" s="8"/>
+      <c r="E14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="50">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="37">
         <v>6</v>
       </c>
-      <c r="C15" t="s" s="49">
+      <c r="C15" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" t="s" s="49">
+      <c r="D15" s="8"/>
+      <c r="E15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="50">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="37">
         <v>7</v>
       </c>
-      <c r="C16" t="s" s="49">
+      <c r="C16" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s" s="49">
+      <c r="D16" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E16" t="s" s="49">
+      <c r="E16" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="50">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="37">
         <v>8</v>
       </c>
-      <c r="C17" t="s" s="49">
+      <c r="C17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" t="s" s="49">
+      <c r="D17" s="8"/>
+      <c r="E17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="50">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="37">
         <v>9</v>
       </c>
-      <c r="C18" t="s" s="49">
+      <c r="C18" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" t="s" s="49">
+      <c r="D18" s="8"/>
+      <c r="E18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="50">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="37">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="49">
+      <c r="C19" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" t="s" s="49">
+      <c r="D19" s="8"/>
+      <c r="E19" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="9"/>
-      <c r="B20" s="50">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="37">
         <v>11</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="50">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="37">
         <v>12</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="9"/>
-      <c r="B22" s="50">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="37">
         <v>13</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" s="50">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="37">
         <v>14</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="9"/>
-      <c r="B24" s="50">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="37">
         <v>15</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="50">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="37">
         <v>16</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="9"/>
-      <c r="B26" s="50">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="37">
         <v>17</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" t="s" s="40">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3080,7 +3091,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3088,537 +3099,537 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="52" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="52" customWidth="1"/>
-    <col min="4" max="4" width="18" style="52" customWidth="1"/>
-    <col min="5" max="5" width="41.5" style="52" customWidth="1"/>
-    <col min="6" max="8" width="8.85156" style="52" customWidth="1"/>
-    <col min="9" max="9" width="26.8516" style="52" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="52" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" t="s" s="16">
+      <c r="I3" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="53">
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="54">
+      <c r="D4" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="E4" s="60"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" t="s" s="16">
+      <c r="I4" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="53">
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="56">
+      <c r="D5" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="E5" s="62"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="16">
+      <c r="I5" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <v>235</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="C6" t="s" s="26">
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" t="s" s="26">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="30">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="30">
+      <c r="C9" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="30">
+      <c r="D9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E9" t="s" s="30">
+      <c r="E9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="57.6" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="18">
+      <c r="F9" s="17"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="58">
+      <c r="C10" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s" s="59">
+      <c r="D10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E10" t="s" s="59">
+      <c r="E10" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="72" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18">
-        <f>B10+1</f>
+      <c r="F10" s="17"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15">
+        <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="58">
+      <c r="C11" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s" s="58">
+      <c r="D11" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E11" t="s" s="59">
+      <c r="E11" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="43.2" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="18">
-        <f>B11+1</f>
+      <c r="F11" s="17"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="58">
+      <c r="C12" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D12" t="s" s="58">
+      <c r="D12" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="E12" t="s" s="59">
+      <c r="E12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18">
-        <f>B12+1</f>
+      <c r="F12" s="17"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="18">
-        <f>B13+1</f>
+      <c r="C13" s="38"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="18">
-        <f>B14+1</f>
+      <c r="C14" s="38"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="18">
-        <f>B15+1</f>
+      <c r="C15" s="38"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18">
-        <f>B16+1</f>
+      <c r="C16" s="38"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18">
-        <f>B17+1</f>
+      <c r="C17" s="38"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="18">
-        <f>B18+1</f>
+      <c r="C18" s="38"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18">
-        <f>B19+1</f>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18">
-        <f>B20+1</f>
+      <c r="C20" s="38"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="18">
-        <f>B21+1</f>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="18">
-        <f>B22+1</f>
+      <c r="C22" s="38"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="18">
-        <f>B23+1</f>
+      <c r="C23" s="38"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="18">
-        <f>B24+1</f>
+      <c r="C24" s="38"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="18">
-        <f>B25+1</f>
+      <c r="C25" s="38"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="18">
-        <f>B26+1</f>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="18">
-        <f>B27+1</f>
+      <c r="C27" s="38"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="15">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="18">
-        <f>B28+1</f>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="18">
-        <f>B29+1</f>
+      <c r="C29" s="38"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="15">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" t="s" s="40">
+      <c r="C30" s="38"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3630,7 +3641,7 @@
     <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3638,546 +3649,548 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="61" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="61" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="61" customWidth="1"/>
-    <col min="4" max="4" width="18" style="61" customWidth="1"/>
-    <col min="5" max="5" width="24" style="61" customWidth="1"/>
-    <col min="6" max="6" width="16.6719" style="61" customWidth="1"/>
-    <col min="7" max="8" width="8.85156" style="61" customWidth="1"/>
-    <col min="9" max="9" width="26.8516" style="61" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="8.85156" style="61" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="26.88671875" style="5" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" t="s" s="11">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" t="s" s="13">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="15"/>
-      <c r="I2" t="s" s="16">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="16">
+      <c r="J2" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" t="s" s="16">
+    <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" t="s" s="53">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s" s="54">
+      <c r="D4" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="10"/>
-      <c r="H4" t="s" s="16">
+      <c r="E4" s="60"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" t="s" s="26">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="10"/>
-      <c r="H5" t="s" s="16">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="25"/>
-      <c r="C6" t="s" s="26">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" t="s" s="30">
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="30">
+      <c r="C9" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="D9" t="s" s="30">
+      <c r="D9" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E9" t="s" s="30">
+      <c r="E9" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F9" t="s" s="30">
+      <c r="F9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" ht="43.2" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="18">
+      <c r="G9" s="17"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="15">
         <v>1</v>
       </c>
-      <c r="C10" t="s" s="58">
+      <c r="C10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D10" t="s" s="59">
+      <c r="D10" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="E10" t="s" s="59">
+      <c r="E10" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="F10" t="s" s="59">
+      <c r="F10" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" ht="57.6" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="18">
-        <f>B10+1</f>
+      <c r="G10" s="17"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
+      <c r="B11" s="15">
+        <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" t="s" s="58">
+      <c r="C11" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="D11" t="s" s="58">
+      <c r="D11" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E11" t="s" s="59">
+      <c r="E11" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F11" t="s" s="59">
+      <c r="F11" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" ht="43.2" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="18">
-        <f>B11+1</f>
+      <c r="G11" s="17"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="15">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" t="s" s="58">
+      <c r="C12" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="D12" t="s" s="58">
+      <c r="D12" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="E12" t="s" s="59">
+      <c r="E12" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="F12" t="s" s="59">
+      <c r="F12" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" ht="72" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="18">
-        <f>B12+1</f>
+      <c r="G12" s="17"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9"/>
+      <c r="B13" s="15">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" t="s" s="58">
+      <c r="C13" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="D13" t="s" s="59">
+      <c r="D13" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E13" t="s" s="59">
+      <c r="F13" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="F13" t="s" s="59">
+      <c r="G13" s="17"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
+      <c r="B14" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" ht="43.2" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="18">
-        <f>B13+1</f>
-        <v>5</v>
-      </c>
-      <c r="C14" t="s" s="58">
+      <c r="D14" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="D14" t="s" s="59">
+      <c r="E14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E14" t="s" s="59">
+      <c r="F14" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F14" t="s" s="59">
+      <c r="G14" s="17"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="15">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="15">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="15">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="15">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="15">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="18">
-        <f>B14+1</f>
-        <v>6</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="10"/>
-      <c r="B16" s="18">
-        <f>B15+1</f>
-        <v>7</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="18">
-        <f>B16+1</f>
-        <v>8</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="18">
-        <f>B17+1</f>
-        <v>9</v>
-      </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="18">
-        <f>B18+1</f>
-        <v>10</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18">
-        <f>B19+1</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18">
-        <f>B20+1</f>
-        <v>12</v>
-      </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="18">
-        <f>B21+1</f>
-        <v>13</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="18">
-        <f>B22+1</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="18">
-        <f>B23+1</f>
-        <v>15</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="10"/>
-      <c r="B25" s="18">
-        <f>B24+1</f>
-        <v>16</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="18">
-        <f>B25+1</f>
-        <v>17</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="18">
-        <f>B26+1</f>
-        <v>18</v>
-      </c>
-      <c r="C27" s="51"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="18">
-        <f>B27+1</f>
-        <v>19</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="18">
-        <f>B28+1</f>
-        <v>20</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="18">
-        <f>B29+1</f>
-        <v>21</v>
-      </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" s="9"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" t="s" s="62">
-        <v>117</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4189,7 +4202,7 @@
     <mergeCell ref="D6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
